--- a/database/industries/siman/silam/income/quarterly/dollar_cumulative.xlsx
+++ b/database/industries/siman/silam/income/quarterly/dollar_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E469EA-1C9C-4A03-AB35-877C0386569F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D67B3D3-0B88-44EE-9C0B-AE9F5222B15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>6 ماهه منتهی به 1399/04</t>
-  </si>
-  <si>
-    <t>9 ماهه منتهی به 1399/07</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1399/10</t>
   </si>
   <si>
@@ -67,15 +61,15 @@
     <t>9 ماهه منتهی به 1401/07</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>3 ماهه منتهی به 1402/01</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-06-07 (3)</t>
-  </si>
-  <si>
-    <t>1400-09-01 (2)</t>
-  </si>
-  <si>
     <t>1401-02-25 (8)</t>
   </si>
   <si>
@@ -88,16 +82,19 @@
     <t>1401-10-05 (3)</t>
   </si>
   <si>
-    <t>1401-10-05 (8)</t>
-  </si>
-  <si>
-    <t>1401-03-02 (2)</t>
+    <t>1402-02-24 (10)</t>
+  </si>
+  <si>
+    <t>1402-02-30 (3)</t>
   </si>
   <si>
     <t>1401-07-26 (2)</t>
   </si>
   <si>
     <t>1401-10-05 (2)</t>
+  </si>
+  <si>
+    <t>1402-02-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -622,18 +619,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="28" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -775,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -805,13 +803,13 @@
         <v>23</v>
       </c>
       <c r="L9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,513 +823,513 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>4486</v>
+        <v>8507</v>
       </c>
       <c r="E11" s="13">
-        <v>6351</v>
+        <v>2833</v>
       </c>
       <c r="F11" s="13">
-        <v>8507</v>
+        <v>7024</v>
       </c>
       <c r="G11" s="13">
-        <v>2833</v>
+        <v>9864</v>
       </c>
       <c r="H11" s="13">
-        <v>7024</v>
+        <v>13640</v>
       </c>
       <c r="I11" s="13">
-        <v>9864</v>
+        <v>4190</v>
       </c>
       <c r="J11" s="13">
-        <v>13640</v>
+        <v>10582</v>
       </c>
       <c r="K11" s="13">
-        <v>4190</v>
+        <v>15150</v>
       </c>
       <c r="L11" s="13">
-        <v>10582</v>
+        <v>19856</v>
       </c>
       <c r="M11" s="13">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-3538</v>
+        <v>-6642</v>
       </c>
       <c r="E12" s="11">
-        <v>-4925</v>
+        <v>-1852</v>
       </c>
       <c r="F12" s="11">
-        <v>-6642</v>
+        <v>-4902</v>
       </c>
       <c r="G12" s="11">
-        <v>-1852</v>
+        <v>-6543</v>
       </c>
       <c r="H12" s="11">
-        <v>-4902</v>
+        <v>-9314</v>
       </c>
       <c r="I12" s="11">
-        <v>-6543</v>
+        <v>-2653</v>
       </c>
       <c r="J12" s="11">
-        <v>-9314</v>
+        <v>-6077</v>
       </c>
       <c r="K12" s="11">
-        <v>-2653</v>
+        <v>-8408</v>
       </c>
       <c r="L12" s="11">
-        <v>-6077</v>
+        <v>-12733</v>
       </c>
       <c r="M12" s="11">
-        <v>-8408</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1960</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>948</v>
+        <v>1865</v>
       </c>
       <c r="E13" s="15">
-        <v>1425</v>
+        <v>982</v>
       </c>
       <c r="F13" s="15">
-        <v>1865</v>
+        <v>2122</v>
       </c>
       <c r="G13" s="15">
-        <v>982</v>
+        <v>3321</v>
       </c>
       <c r="H13" s="15">
-        <v>2122</v>
+        <v>4326</v>
       </c>
       <c r="I13" s="15">
-        <v>3321</v>
+        <v>1537</v>
       </c>
       <c r="J13" s="15">
-        <v>4326</v>
+        <v>4505</v>
       </c>
       <c r="K13" s="15">
-        <v>1537</v>
+        <v>6743</v>
       </c>
       <c r="L13" s="15">
-        <v>4505</v>
+        <v>7123</v>
       </c>
       <c r="M13" s="15">
-        <v>6743</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-1047</v>
+        <v>-898</v>
       </c>
       <c r="E14" s="11">
-        <v>-854</v>
+        <v>-311</v>
       </c>
       <c r="F14" s="11">
-        <v>-898</v>
+        <v>-953</v>
       </c>
       <c r="G14" s="11">
-        <v>-311</v>
+        <v>-2120</v>
       </c>
       <c r="H14" s="11">
-        <v>-953</v>
+        <v>-1478</v>
       </c>
       <c r="I14" s="11">
-        <v>-2120</v>
+        <v>-792</v>
       </c>
       <c r="J14" s="11">
-        <v>-1478</v>
+        <v>-1307</v>
       </c>
       <c r="K14" s="11">
-        <v>-792</v>
+        <v>-1854</v>
       </c>
       <c r="L14" s="11">
-        <v>-1307</v>
+        <v>-2712</v>
       </c>
       <c r="M14" s="11">
-        <v>-1854</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-550</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
-        <v>-566</v>
+        <v>-446</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="13">
+        <v>-309</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="F15" s="13">
-        <v>-446</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="13">
-        <v>-309</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>100</v>
+        <v>-199</v>
       </c>
       <c r="E16" s="11">
-        <v>-192</v>
+        <v>-49</v>
       </c>
       <c r="F16" s="11">
-        <v>-199</v>
+        <v>-131</v>
       </c>
       <c r="G16" s="11">
-        <v>-49</v>
+        <v>-79</v>
       </c>
       <c r="H16" s="11">
-        <v>-131</v>
+        <v>-54</v>
       </c>
       <c r="I16" s="11">
-        <v>-79</v>
+        <v>60</v>
       </c>
       <c r="J16" s="11">
-        <v>-54</v>
+        <v>-222</v>
       </c>
       <c r="K16" s="11">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="L16" s="11">
-        <v>-222</v>
+        <v>-186</v>
       </c>
       <c r="M16" s="11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-169</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>-565</v>
+        <v>322</v>
       </c>
       <c r="E17" s="15">
-        <v>379</v>
+        <v>621</v>
       </c>
       <c r="F17" s="15">
-        <v>322</v>
+        <v>1038</v>
       </c>
       <c r="G17" s="15">
-        <v>621</v>
+        <v>1122</v>
       </c>
       <c r="H17" s="15">
-        <v>1038</v>
+        <v>2486</v>
       </c>
       <c r="I17" s="15">
-        <v>1122</v>
+        <v>806</v>
       </c>
       <c r="J17" s="15">
-        <v>2486</v>
+        <v>2977</v>
       </c>
       <c r="K17" s="15">
-        <v>806</v>
+        <v>4917</v>
       </c>
       <c r="L17" s="15">
-        <v>2977</v>
+        <v>4225</v>
       </c>
       <c r="M17" s="15">
-        <v>4917</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-189</v>
+        <v>-373</v>
       </c>
       <c r="E18" s="11">
-        <v>-260</v>
+        <v>-147</v>
       </c>
       <c r="F18" s="11">
-        <v>-373</v>
+        <v>-434</v>
       </c>
       <c r="G18" s="11">
-        <v>-147</v>
+        <v>-589</v>
       </c>
       <c r="H18" s="11">
-        <v>-434</v>
+        <v>-630</v>
       </c>
       <c r="I18" s="11">
-        <v>-589</v>
+        <v>-66</v>
       </c>
       <c r="J18" s="11">
-        <v>-630</v>
+        <v>-78</v>
       </c>
       <c r="K18" s="11">
-        <v>-66</v>
+        <v>-96</v>
       </c>
       <c r="L18" s="11">
-        <v>-78</v>
+        <v>-126</v>
       </c>
       <c r="M18" s="11">
-        <v>-96</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c r="E19" s="13">
-        <v>-61</v>
+        <v>17</v>
       </c>
       <c r="F19" s="13">
-        <v>238</v>
+        <v>-2</v>
       </c>
       <c r="G19" s="13">
-        <v>17</v>
+        <v>-2</v>
       </c>
       <c r="H19" s="13">
-        <v>-2</v>
-      </c>
-      <c r="I19" s="13">
-        <v>-2</v>
+        <v>-26</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="J19" s="13">
-        <v>-26</v>
+        <v>287</v>
       </c>
       <c r="K19" s="13">
-        <v>-9</v>
+        <v>97</v>
       </c>
       <c r="L19" s="13">
-        <v>287</v>
+        <v>492</v>
       </c>
       <c r="M19" s="13">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>-738</v>
+        <v>187</v>
       </c>
       <c r="E20" s="17">
-        <v>58</v>
+        <v>490</v>
       </c>
       <c r="F20" s="17">
-        <v>187</v>
+        <v>602</v>
       </c>
       <c r="G20" s="17">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="H20" s="17">
-        <v>602</v>
+        <v>1830</v>
       </c>
       <c r="I20" s="17">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="J20" s="17">
-        <v>1830</v>
+        <v>3186</v>
       </c>
       <c r="K20" s="17">
-        <v>730</v>
+        <v>4918</v>
       </c>
       <c r="L20" s="17">
-        <v>3186</v>
+        <v>4591</v>
       </c>
       <c r="M20" s="17">
-        <v>4918</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-57</v>
+        <v>-76</v>
       </c>
       <c r="E21" s="13">
-        <v>-16</v>
+        <v>-110</v>
       </c>
       <c r="F21" s="13">
-        <v>-76</v>
+        <v>-594</v>
       </c>
       <c r="G21" s="13">
-        <v>-110</v>
+        <v>-508</v>
       </c>
       <c r="H21" s="13">
-        <v>-594</v>
+        <v>-591</v>
       </c>
       <c r="I21" s="13">
-        <v>-508</v>
+        <v>-44</v>
       </c>
       <c r="J21" s="13">
-        <v>-591</v>
+        <v>-401</v>
       </c>
       <c r="K21" s="13">
-        <v>-44</v>
+        <v>-861</v>
       </c>
       <c r="L21" s="13">
-        <v>-401</v>
+        <v>-939</v>
       </c>
       <c r="M21" s="13">
-        <v>-861</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>-795</v>
+        <v>111</v>
       </c>
       <c r="E22" s="17">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="F22" s="17">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="G22" s="17">
-        <v>380</v>
+        <v>23</v>
       </c>
       <c r="H22" s="17">
-        <v>9</v>
+        <v>1239</v>
       </c>
       <c r="I22" s="17">
-        <v>23</v>
+        <v>696</v>
       </c>
       <c r="J22" s="17">
-        <v>1239</v>
+        <v>2785</v>
       </c>
       <c r="K22" s="17">
-        <v>686</v>
+        <v>4057</v>
       </c>
       <c r="L22" s="17">
-        <v>2785</v>
+        <v>3653</v>
       </c>
       <c r="M22" s="17">
-        <v>4057</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>-795</v>
+        <v>111</v>
       </c>
       <c r="E24" s="17">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="F24" s="17">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="G24" s="17">
-        <v>380</v>
+        <v>23</v>
       </c>
       <c r="H24" s="17">
-        <v>9</v>
+        <v>1239</v>
       </c>
       <c r="I24" s="17">
-        <v>23</v>
+        <v>696</v>
       </c>
       <c r="J24" s="17">
-        <v>1239</v>
+        <v>2785</v>
       </c>
       <c r="K24" s="17">
-        <v>686</v>
+        <v>4057</v>
       </c>
       <c r="L24" s="17">
-        <v>2785</v>
+        <v>3653</v>
       </c>
       <c r="M24" s="17">
-        <v>4057</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1365,45 +1363,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>7269</v>
+        <v>5728</v>
       </c>
       <c r="E26" s="11">
-        <v>6198</v>
+        <v>4960</v>
       </c>
       <c r="F26" s="11">
-        <v>5728</v>
+        <v>5029</v>
       </c>
       <c r="G26" s="11">
-        <v>4960</v>
+        <v>4810</v>
       </c>
       <c r="H26" s="11">
-        <v>5029</v>
+        <v>4625</v>
       </c>
       <c r="I26" s="11">
-        <v>4810</v>
+        <v>4450</v>
       </c>
       <c r="J26" s="11">
-        <v>4625</v>
+        <v>4169</v>
       </c>
       <c r="K26" s="11">
-        <v>4450</v>
+        <v>4042</v>
       </c>
       <c r="L26" s="11">
-        <v>4169</v>
+        <v>3782</v>
       </c>
       <c r="M26" s="11">
-        <v>4042</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1437,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
